--- a/SSD_rawdata.xlsx
+++ b/SSD_rawdata.xlsx
@@ -74,7 +74,7 @@
     <t xml:space="preserve">dose.mg.L.master.converted.reported</t>
   </si>
   <si>
-    <t xml:space="preserve">Dose_Volume_Aligned</t>
+    <t xml:space="preserve">Dose_Volume_Aligned_particles_L</t>
   </si>
   <si>
     <t xml:space="preserve">Acute_Chronic_AF</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">Polylactic Acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Dose_SurfaceArea_Aligned</t>
+    <t xml:space="preserve">Dose_SurfaceArea_Aligned_particles_L</t>
   </si>
 </sst>
 </file>

--- a/SSD_rawdata.xlsx
+++ b/SSD_rawdata.xlsx
@@ -74,7 +74,7 @@
     <t xml:space="preserve">dose.mg.L.master.converted.reported</t>
   </si>
   <si>
-    <t xml:space="preserve">Dose_Volume_Aligned_particles_L</t>
+    <t xml:space="preserve">Dose_Volume_Aligned_particles_mL</t>
   </si>
   <si>
     <t xml:space="preserve">Acute_Chronic_AF</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">Polylactic Acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Dose_SurfaceArea_Aligned_particles_L</t>
+    <t xml:space="preserve">Dose_SurfaceArea_Aligned_particles_mL</t>
   </si>
 </sst>
 </file>

--- a/SSD_rawdata.xlsx
+++ b/SSD_rawdata.xlsx
@@ -7526,10 +7526,10 @@
         <v>2</v>
       </c>
       <c r="N107" t="n">
-        <v>130</v>
+        <v>969000</v>
       </c>
       <c r="O107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -7538,10 +7538,10 @@
         <v>31</v>
       </c>
       <c r="R107" t="n">
-        <v>7.25451333807603</v>
+        <v>54074.0263430437</v>
       </c>
       <c r="S107" t="n">
-        <v>725.451333807604</v>
+        <v>5407402.63430437</v>
       </c>
       <c r="T107" t="s">
         <v>33</v>
@@ -7588,10 +7588,10 @@
         <v>2</v>
       </c>
       <c r="N108" t="n">
-        <v>270</v>
+        <v>1940000</v>
       </c>
       <c r="O108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P108" t="n">
         <v>8</v>
@@ -7600,10 +7600,10 @@
         <v>31</v>
       </c>
       <c r="R108" t="n">
-        <v>15.0670661636964</v>
+        <v>108259.660583596</v>
       </c>
       <c r="S108" t="n">
-        <v>753.353308184819</v>
+        <v>5412983.02917981</v>
       </c>
       <c r="T108" t="s">
         <v>33</v>
@@ -7650,10 +7650,10 @@
         <v>2</v>
       </c>
       <c r="N109" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P109" t="n">
         <v>1</v>
@@ -7662,10 +7662,10 @@
         <v>31</v>
       </c>
       <c r="R109" t="n">
-        <v>1.84153030889622</v>
+        <v>13504.5555985723</v>
       </c>
       <c r="S109" t="n">
-        <v>184.153030889622</v>
+        <v>1350455.55985723</v>
       </c>
       <c r="T109" t="s">
         <v>33</v>
@@ -7712,10 +7712,10 @@
         <v>2</v>
       </c>
       <c r="N110" t="n">
-        <v>67</v>
+        <v>484000</v>
       </c>
       <c r="O110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P110" t="n">
         <v>2</v>
@@ -7724,10 +7724,10 @@
         <v>31</v>
       </c>
       <c r="R110" t="n">
-        <v>3.73886456654688</v>
+        <v>27009.1111971446</v>
       </c>
       <c r="S110" t="n">
-        <v>186.943228327344</v>
+        <v>1350455.55985723</v>
       </c>
       <c r="T110" t="s">
         <v>33</v>
@@ -7774,10 +7774,10 @@
         <v>2</v>
       </c>
       <c r="N111" t="n">
-        <v>74</v>
+        <v>533000</v>
       </c>
       <c r="O111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P111" t="n">
         <v>2.2</v>
@@ -7786,10 +7786,10 @@
         <v>31</v>
       </c>
       <c r="R111" t="n">
-        <v>4.1294922078279</v>
+        <v>29743.5046861117</v>
       </c>
       <c r="S111" t="n">
-        <v>41.294922078279</v>
+        <v>297435.046861117</v>
       </c>
       <c r="T111" t="s">
         <v>33</v>
@@ -7836,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N112" t="n">
-        <v>16</v>
+        <v>121000</v>
       </c>
       <c r="O112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P112" t="n">
         <v>0.5</v>
@@ -7848,10 +7848,10 @@
         <v>31</v>
       </c>
       <c r="R112" t="n">
-        <v>0.892863180070897</v>
+        <v>6752.27779928616</v>
       </c>
       <c r="S112" t="n">
-        <v>89.2863180070897</v>
+        <v>675227.779928616</v>
       </c>
       <c r="T112" t="s">
         <v>33</v>
@@ -7898,10 +7898,10 @@
         <v>2</v>
       </c>
       <c r="N113" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P113" t="n">
         <v>1</v>
@@ -7910,10 +7910,10 @@
         <v>31</v>
       </c>
       <c r="R113" t="n">
-        <v>1.84153030889622</v>
+        <v>13504.5555985723</v>
       </c>
       <c r="S113" t="n">
-        <v>92.0765154448112</v>
+        <v>675227.779928616</v>
       </c>
       <c r="T113" t="s">
         <v>33</v>
@@ -7960,10 +7960,10 @@
         <v>2</v>
       </c>
       <c r="N114" t="n">
+        <v>232000</v>
+      </c>
+      <c r="O114" t="s">
         <v>32</v>
-      </c>
-      <c r="O114" t="s">
-        <v>31</v>
       </c>
       <c r="P114" t="n">
         <v>0.958</v>
@@ -7972,10 +7972,10 @@
         <v>31</v>
       </c>
       <c r="R114" t="n">
-        <v>1.78572636014179</v>
+        <v>12946.516111028</v>
       </c>
       <c r="S114" t="n">
-        <v>17.8572636014179</v>
+        <v>129465.16111028</v>
       </c>
       <c r="T114" t="s">
         <v>33</v>
@@ -8022,10 +8022,10 @@
         <v>2</v>
       </c>
       <c r="N115" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P115" t="n">
         <v>1</v>
@@ -8034,10 +8034,10 @@
         <v>31</v>
       </c>
       <c r="R115" t="n">
-        <v>1.84153030889622</v>
+        <v>13504.5555985723</v>
       </c>
       <c r="S115" t="n">
-        <v>184.153030889622</v>
+        <v>1350455.55985723</v>
       </c>
       <c r="T115" t="s">
         <v>33</v>
@@ -8084,10 +8084,10 @@
         <v>2</v>
       </c>
       <c r="N116" t="n">
-        <v>67</v>
+        <v>484000</v>
       </c>
       <c r="O116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P116" t="n">
         <v>2</v>
@@ -8096,10 +8096,10 @@
         <v>31</v>
       </c>
       <c r="R116" t="n">
-        <v>3.73886456654688</v>
+        <v>27009.1111971446</v>
       </c>
       <c r="S116" t="n">
-        <v>186.943228327344</v>
+        <v>1350455.55985723</v>
       </c>
       <c r="T116" t="s">
         <v>33</v>
@@ -8146,10 +8146,10 @@
         <v>2</v>
       </c>
       <c r="N117" t="n">
-        <v>3.5</v>
+        <v>296000</v>
       </c>
       <c r="O117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P117" t="n">
         <v>0.429</v>
@@ -8158,10 +8158,10 @@
         <v>31</v>
       </c>
       <c r="R117" t="n">
-        <v>0.0488284551484702</v>
+        <v>4129.49220684205</v>
       </c>
       <c r="S117" t="n">
-        <v>0.488284551484702</v>
+        <v>41294.9220684205</v>
       </c>
       <c r="T117" t="s">
         <v>135</v>
@@ -8208,10 +8208,10 @@
         <v>280</v>
       </c>
       <c r="N118" t="n">
-        <v>4.3</v>
+        <v>0.126</v>
       </c>
       <c r="O118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P118" t="n">
         <v>0.5</v>
@@ -8220,10 +8220,10 @@
         <v>31</v>
       </c>
       <c r="R118" t="n">
-        <v>164610.487999731</v>
+        <v>4823.47011348048</v>
       </c>
       <c r="S118" t="n">
-        <v>16461048.7999731</v>
+        <v>482347.011348048</v>
       </c>
       <c r="T118" t="s">
         <v>135</v>
@@ -8270,10 +8270,10 @@
         <v>280</v>
       </c>
       <c r="N119" t="n">
-        <v>8.6</v>
+        <v>0.252</v>
       </c>
       <c r="O119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P119" t="n">
         <v>1</v>
@@ -8282,10 +8282,10 @@
         <v>31</v>
       </c>
       <c r="R119" t="n">
-        <v>329220.975999462</v>
+        <v>9646.94022696097</v>
       </c>
       <c r="S119" t="n">
-        <v>16461048.7999731</v>
+        <v>482347.011348048</v>
       </c>
       <c r="T119" t="s">
         <v>135</v>
@@ -8332,10 +8332,10 @@
         <v>280</v>
       </c>
       <c r="N120" t="n">
-        <v>4.3</v>
+        <v>0.126</v>
       </c>
       <c r="O120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P120" t="n">
         <v>0.5</v>
@@ -8344,10 +8344,10 @@
         <v>31</v>
       </c>
       <c r="R120" t="n">
-        <v>164610.487999731</v>
+        <v>4823.47011348048</v>
       </c>
       <c r="S120" t="n">
-        <v>16461048.7999731</v>
+        <v>482347.011348048</v>
       </c>
       <c r="T120" t="s">
         <v>135</v>
@@ -8394,10 +8394,10 @@
         <v>280</v>
       </c>
       <c r="N121" t="n">
-        <v>8.6</v>
+        <v>0.252</v>
       </c>
       <c r="O121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P121" t="n">
         <v>1</v>
@@ -8406,10 +8406,10 @@
         <v>31</v>
       </c>
       <c r="R121" t="n">
-        <v>329220.975999462</v>
+        <v>9646.94022696097</v>
       </c>
       <c r="S121" t="n">
-        <v>16461048.7999731</v>
+        <v>482347.011348048</v>
       </c>
       <c r="T121" t="s">
         <v>135</v>
@@ -8456,10 +8456,10 @@
         <v>280</v>
       </c>
       <c r="N122" t="n">
-        <v>13</v>
+        <v>0.378</v>
       </c>
       <c r="O122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P122" t="n">
         <v>1.5</v>
@@ -8468,10 +8468,10 @@
         <v>31</v>
       </c>
       <c r="R122" t="n">
-        <v>497659.614882907</v>
+        <v>14470.4103404415</v>
       </c>
       <c r="S122" t="n">
-        <v>4976596.14882907</v>
+        <v>144704.103404415</v>
       </c>
       <c r="T122" t="s">
         <v>135</v>
@@ -8518,10 +8518,10 @@
         <v>280</v>
       </c>
       <c r="N123" t="n">
-        <v>0.27</v>
+        <v>0.00788</v>
       </c>
       <c r="O123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P123" t="n">
         <v>0.03125</v>
@@ -8530,10 +8530,10 @@
         <v>31</v>
       </c>
       <c r="R123" t="n">
-        <v>10336.0073860296</v>
+        <v>301.658289636716</v>
       </c>
       <c r="S123" t="n">
-        <v>1033600.73860296</v>
+        <v>30165.8289636716</v>
       </c>
       <c r="T123" t="s">
         <v>135</v>
@@ -8580,10 +8580,10 @@
         <v>280</v>
       </c>
       <c r="N124" t="n">
-        <v>0.54</v>
+        <v>0.0158</v>
       </c>
       <c r="O124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P124" t="n">
         <v>0.0625</v>
@@ -8592,10 +8592,10 @@
         <v>31</v>
       </c>
       <c r="R124" t="n">
-        <v>20672.0147720592</v>
+        <v>604.847839626918</v>
       </c>
       <c r="S124" t="n">
-        <v>1033600.73860296</v>
+        <v>30242.3919813459</v>
       </c>
       <c r="T124" t="s">
         <v>135</v>
@@ -8642,10 +8642,10 @@
         <v>280</v>
       </c>
       <c r="N125" t="n">
-        <v>2.1</v>
+        <v>0.063</v>
       </c>
       <c r="O125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P125" t="n">
         <v>0.25</v>
@@ -8654,10 +8654,10 @@
         <v>31</v>
       </c>
       <c r="R125" t="n">
-        <v>80391.1685580081</v>
+        <v>2411.73505674024</v>
       </c>
       <c r="S125" t="n">
-        <v>8039116.85580081</v>
+        <v>241173.505674024</v>
       </c>
       <c r="T125" t="s">
         <v>135</v>
@@ -8704,10 +8704,10 @@
         <v>280</v>
       </c>
       <c r="N126" t="n">
-        <v>4.3</v>
+        <v>0.126</v>
       </c>
       <c r="O126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P126" t="n">
         <v>0.5</v>
@@ -8716,10 +8716,10 @@
         <v>31</v>
       </c>
       <c r="R126" t="n">
-        <v>164610.487999731</v>
+        <v>4823.47011348048</v>
       </c>
       <c r="S126" t="n">
-        <v>8230524.39998654</v>
+        <v>241173.505674024</v>
       </c>
       <c r="T126" t="s">
         <v>135</v>
@@ -25582,10 +25582,10 @@
         <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>130</v>
+        <v>969000</v>
       </c>
       <c r="O80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -25594,10 +25594,10 @@
         <v>31</v>
       </c>
       <c r="R80" t="n">
-        <v>7.25451333807603</v>
+        <v>54074.0263430437</v>
       </c>
       <c r="S80" t="n">
-        <v>713.557338013467</v>
+        <v>5318746.61950038</v>
       </c>
       <c r="T80" t="s">
         <v>33</v>
@@ -25644,10 +25644,10 @@
         <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>270</v>
+        <v>1940000</v>
       </c>
       <c r="O81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P81" t="n">
         <v>8</v>
@@ -25656,10 +25656,10 @@
         <v>31</v>
       </c>
       <c r="R81" t="n">
-        <v>15.0670661636964</v>
+        <v>108259.660583596</v>
       </c>
       <c r="S81" t="n">
-        <v>741.001851013985</v>
+        <v>5324235.52210049</v>
       </c>
       <c r="T81" t="s">
         <v>33</v>
@@ -25706,10 +25706,10 @@
         <v>2</v>
       </c>
       <c r="N82" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -25718,10 +25718,10 @@
         <v>31</v>
       </c>
       <c r="R82" t="n">
-        <v>1.84153030889622</v>
+        <v>13504.5555985723</v>
       </c>
       <c r="S82" t="n">
-        <v>181.133785803419</v>
+        <v>1328314.42922507</v>
       </c>
       <c r="T82" t="s">
         <v>33</v>
@@ -25768,10 +25768,10 @@
         <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>67</v>
+        <v>484000</v>
       </c>
       <c r="O83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -25780,10 +25780,10 @@
         <v>31</v>
       </c>
       <c r="R83" t="n">
-        <v>3.73886456654688</v>
+        <v>27009.1111971446</v>
       </c>
       <c r="S83" t="n">
-        <v>183.87823710347</v>
+        <v>1328314.42922507</v>
       </c>
       <c r="T83" t="s">
         <v>33</v>
@@ -25830,10 +25830,10 @@
         <v>2</v>
       </c>
       <c r="N84" t="n">
-        <v>74</v>
+        <v>533000</v>
       </c>
       <c r="O84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P84" t="n">
         <v>2.2</v>
@@ -25842,10 +25842,10 @@
         <v>31</v>
       </c>
       <c r="R84" t="n">
-        <v>4.1294922078279</v>
+        <v>29743.5046861117</v>
       </c>
       <c r="S84" t="n">
-        <v>40.6178792407666</v>
+        <v>292558.508585522</v>
       </c>
       <c r="T84" t="s">
         <v>33</v>
@@ -25892,10 +25892,10 @@
         <v>2</v>
       </c>
       <c r="N85" t="n">
-        <v>16</v>
+        <v>121000</v>
       </c>
       <c r="O85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P85" t="n">
         <v>0.5</v>
@@ -25904,10 +25904,10 @@
         <v>31</v>
       </c>
       <c r="R85" t="n">
-        <v>0.892863180070897</v>
+        <v>6752.27779928616</v>
       </c>
       <c r="S85" t="n">
-        <v>87.8224416016575</v>
+        <v>664157.214612535</v>
       </c>
       <c r="T85" t="s">
         <v>33</v>
@@ -25954,10 +25954,10 @@
         <v>2</v>
       </c>
       <c r="N86" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -25966,10 +25966,10 @@
         <v>31</v>
       </c>
       <c r="R86" t="n">
-        <v>1.84153030889622</v>
+        <v>13504.5555985723</v>
       </c>
       <c r="S86" t="n">
-        <v>90.5668929017093</v>
+        <v>664157.214612535</v>
       </c>
       <c r="T86" t="s">
         <v>33</v>
@@ -26016,10 +26016,10 @@
         <v>2</v>
       </c>
       <c r="N87" t="n">
+        <v>232000</v>
+      </c>
+      <c r="O87" t="s">
         <v>32</v>
-      </c>
-      <c r="O87" t="s">
-        <v>31</v>
       </c>
       <c r="P87" t="n">
         <v>0.958</v>
@@ -26028,10 +26028,10 @@
         <v>31</v>
       </c>
       <c r="R87" t="n">
-        <v>1.78572636014179</v>
+        <v>12946.516111028</v>
       </c>
       <c r="S87" t="n">
-        <v>17.5644883203315</v>
+        <v>127342.540322403</v>
       </c>
       <c r="T87" t="s">
         <v>33</v>
@@ -26078,10 +26078,10 @@
         <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
@@ -26090,10 +26090,10 @@
         <v>31</v>
       </c>
       <c r="R88" t="n">
-        <v>1.84153030889622</v>
+        <v>13504.5555985723</v>
       </c>
       <c r="S88" t="n">
-        <v>181.133785803419</v>
+        <v>1328314.42922507</v>
       </c>
       <c r="T88" t="s">
         <v>33</v>
@@ -26140,10 +26140,10 @@
         <v>2</v>
       </c>
       <c r="N89" t="n">
-        <v>67</v>
+        <v>484000</v>
       </c>
       <c r="O89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P89" t="n">
         <v>2</v>
@@ -26152,10 +26152,10 @@
         <v>31</v>
       </c>
       <c r="R89" t="n">
-        <v>3.73886456654688</v>
+        <v>27009.1111971446</v>
       </c>
       <c r="S89" t="n">
-        <v>183.87823710347</v>
+        <v>1328314.42922507</v>
       </c>
       <c r="T89" t="s">
         <v>33</v>
@@ -26202,10 +26202,10 @@
         <v>2</v>
       </c>
       <c r="N90" t="n">
-        <v>3.5</v>
+        <v>296000</v>
       </c>
       <c r="O90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P90" t="n">
         <v>0.429</v>
@@ -26214,10 +26214,10 @@
         <v>31</v>
       </c>
       <c r="R90" t="n">
-        <v>0.0488284551484702</v>
+        <v>4129.49220684205</v>
       </c>
       <c r="S90" t="n">
-        <v>0.480278977394406</v>
+        <v>40617.8792310698</v>
       </c>
       <c r="T90" t="s">
         <v>135</v>
@@ -26264,10 +26264,10 @@
         <v>280</v>
       </c>
       <c r="N91" t="n">
-        <v>4.3</v>
+        <v>0.126</v>
       </c>
       <c r="O91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P91" t="n">
         <v>0.5</v>
@@ -26276,10 +26276,10 @@
         <v>31</v>
       </c>
       <c r="R91" t="n">
-        <v>164610.487999731</v>
+        <v>4823.47011348048</v>
       </c>
       <c r="S91" t="n">
-        <v>16191164.8862358</v>
+        <v>474438.785038536</v>
       </c>
       <c r="T91" t="s">
         <v>135</v>
@@ -26326,10 +26326,10 @@
         <v>280</v>
       </c>
       <c r="N92" t="n">
-        <v>8.6</v>
+        <v>0.252</v>
       </c>
       <c r="O92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -26338,10 +26338,10 @@
         <v>31</v>
       </c>
       <c r="R92" t="n">
-        <v>329220.975999462</v>
+        <v>9646.94022696097</v>
       </c>
       <c r="S92" t="n">
-        <v>16191164.8862358</v>
+        <v>474438.785038536</v>
       </c>
       <c r="T92" t="s">
         <v>135</v>
@@ -26388,10 +26388,10 @@
         <v>280</v>
       </c>
       <c r="N93" t="n">
-        <v>4.3</v>
+        <v>0.126</v>
       </c>
       <c r="O93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P93" t="n">
         <v>0.5</v>
@@ -26400,10 +26400,10 @@
         <v>31</v>
       </c>
       <c r="R93" t="n">
-        <v>164610.487999731</v>
+        <v>4823.47011348048</v>
       </c>
       <c r="S93" t="n">
-        <v>16191164.8862358</v>
+        <v>474438.785038536</v>
       </c>
       <c r="T93" t="s">
         <v>135</v>
@@ -26450,10 +26450,10 @@
         <v>280</v>
       </c>
       <c r="N94" t="n">
-        <v>8.6</v>
+        <v>0.252</v>
       </c>
       <c r="O94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -26462,10 +26462,10 @@
         <v>31</v>
       </c>
       <c r="R94" t="n">
-        <v>329220.975999462</v>
+        <v>9646.94022696097</v>
       </c>
       <c r="S94" t="n">
-        <v>16191164.8862358</v>
+        <v>474438.785038536</v>
       </c>
       <c r="T94" t="s">
         <v>135</v>
@@ -26512,10 +26512,10 @@
         <v>280</v>
       </c>
       <c r="N95" t="n">
-        <v>13</v>
+        <v>0.378</v>
       </c>
       <c r="O95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P95" t="n">
         <v>1.5</v>
@@ -26524,10 +26524,10 @@
         <v>31</v>
       </c>
       <c r="R95" t="n">
-        <v>497659.614882907</v>
+        <v>14470.4103404415</v>
       </c>
       <c r="S95" t="n">
-        <v>4895003.33769918</v>
+        <v>142331.635511561</v>
       </c>
       <c r="T95" t="s">
         <v>135</v>
@@ -26574,10 +26574,10 @@
         <v>280</v>
       </c>
       <c r="N96" t="n">
-        <v>0.27</v>
+        <v>0.00788</v>
       </c>
       <c r="O96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P96" t="n">
         <v>0.03125</v>
@@ -26586,10 +26586,10 @@
         <v>31</v>
       </c>
       <c r="R96" t="n">
-        <v>10336.0073860296</v>
+        <v>301.658289636716</v>
       </c>
       <c r="S96" t="n">
-        <v>1016654.53936829</v>
+        <v>29671.2510008228</v>
       </c>
       <c r="T96" t="s">
         <v>135</v>
@@ -26636,10 +26636,10 @@
         <v>280</v>
       </c>
       <c r="N97" t="n">
-        <v>0.54</v>
+        <v>0.0158</v>
       </c>
       <c r="O97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P97" t="n">
         <v>0.0625</v>
@@ -26648,10 +26648,10 @@
         <v>31</v>
       </c>
       <c r="R97" t="n">
-        <v>20672.0147720592</v>
+        <v>604.847839626918</v>
       </c>
       <c r="S97" t="n">
-        <v>1016654.53936829</v>
+        <v>29746.5587444797</v>
       </c>
       <c r="T97" t="s">
         <v>135</v>
@@ -26698,10 +26698,10 @@
         <v>280</v>
       </c>
       <c r="N98" t="n">
-        <v>2.1</v>
+        <v>0.063</v>
       </c>
       <c r="O98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P98" t="n">
         <v>0.25</v>
@@ -26710,10 +26710,10 @@
         <v>31</v>
       </c>
       <c r="R98" t="n">
-        <v>80391.1685580081</v>
+        <v>2411.73505674024</v>
       </c>
       <c r="S98" t="n">
-        <v>7907313.08397561</v>
+        <v>237219.392519268</v>
       </c>
       <c r="T98" t="s">
         <v>135</v>
@@ -26760,10 +26760,10 @@
         <v>280</v>
       </c>
       <c r="N99" t="n">
-        <v>4.3</v>
+        <v>0.126</v>
       </c>
       <c r="O99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P99" t="n">
         <v>0.5</v>
@@ -26772,10 +26772,10 @@
         <v>31</v>
       </c>
       <c r="R99" t="n">
-        <v>164610.487999731</v>
+        <v>4823.47011348048</v>
       </c>
       <c r="S99" t="n">
-        <v>8095582.44311788</v>
+        <v>237219.392519268</v>
       </c>
       <c r="T99" t="s">
         <v>135</v>
@@ -33408,10 +33408,10 @@
         <v>2</v>
       </c>
       <c r="N79" t="n">
-        <v>130</v>
+        <v>969000</v>
       </c>
       <c r="O79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -33420,10 +33420,10 @@
         <v>31</v>
       </c>
       <c r="R79" t="n">
-        <v>25.9721964558534</v>
+        <v>193592.7566594</v>
       </c>
       <c r="S79" t="n">
-        <v>2597.21964558534</v>
+        <v>19359275.66594</v>
       </c>
       <c r="T79" t="s">
         <v>33</v>
@@ -33470,10 +33470,10 @@
         <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>270</v>
+        <v>1940000</v>
       </c>
       <c r="O80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P80" t="n">
         <v>8</v>
@@ -33482,10 +33482,10 @@
         <v>31</v>
       </c>
       <c r="R80" t="n">
-        <v>53.9422541775417</v>
+        <v>387585.085571966</v>
       </c>
       <c r="S80" t="n">
-        <v>2697.11270887708</v>
+        <v>19379254.2785983</v>
       </c>
       <c r="T80" t="s">
         <v>33</v>
@@ -33532,10 +33532,10 @@
         <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -33544,10 +33544,10 @@
         <v>31</v>
       </c>
       <c r="R81" t="n">
-        <v>6.59294217725509</v>
+        <v>48348.242633204</v>
       </c>
       <c r="S81" t="n">
-        <v>659.294217725509</v>
+        <v>4834824.2633204</v>
       </c>
       <c r="T81" t="s">
         <v>33</v>
@@ -33594,10 +33594,10 @@
         <v>2</v>
       </c>
       <c r="N82" t="n">
-        <v>67</v>
+        <v>484000</v>
       </c>
       <c r="O82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -33606,10 +33606,10 @@
         <v>31</v>
       </c>
       <c r="R82" t="n">
-        <v>13.3856704810937</v>
+        <v>96696.485266408</v>
       </c>
       <c r="S82" t="n">
-        <v>669.283524054684</v>
+        <v>4834824.2633204</v>
       </c>
       <c r="T82" t="s">
         <v>33</v>
@@ -33656,10 +33656,10 @@
         <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>74</v>
+        <v>533000</v>
       </c>
       <c r="O83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P83" t="n">
         <v>2.2</v>
@@ -33668,10 +33668,10 @@
         <v>31</v>
       </c>
       <c r="R83" t="n">
-        <v>14.7841733671781</v>
+        <v>106486.005468999</v>
       </c>
       <c r="S83" t="n">
-        <v>147.841733671781</v>
+        <v>1064860.05468999</v>
       </c>
       <c r="T83" t="s">
         <v>33</v>
@@ -33718,10 +33718,10 @@
         <v>2</v>
       </c>
       <c r="N84" t="n">
-        <v>16</v>
+        <v>121000</v>
       </c>
       <c r="O84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P84" t="n">
         <v>0.5</v>
@@ -33730,10 +33730,10 @@
         <v>31</v>
       </c>
       <c r="R84" t="n">
-        <v>3.1965780253358</v>
+        <v>24174.121316602</v>
       </c>
       <c r="S84" t="n">
-        <v>319.65780253358</v>
+        <v>2417412.1316602</v>
       </c>
       <c r="T84" t="s">
         <v>33</v>
@@ -33780,10 +33780,10 @@
         <v>2</v>
       </c>
       <c r="N85" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -33792,10 +33792,10 @@
         <v>31</v>
       </c>
       <c r="R85" t="n">
-        <v>6.59294217725509</v>
+        <v>48348.242633204</v>
       </c>
       <c r="S85" t="n">
-        <v>329.647108862755</v>
+        <v>2417412.1316602</v>
       </c>
       <c r="T85" t="s">
         <v>33</v>
@@ -33842,10 +33842,10 @@
         <v>2</v>
       </c>
       <c r="N86" t="n">
+        <v>232000</v>
+      </c>
+      <c r="O86" t="s">
         <v>32</v>
-      </c>
-      <c r="O86" t="s">
-        <v>31</v>
       </c>
       <c r="P86" t="n">
         <v>0.958</v>
@@ -33854,10 +33854,10 @@
         <v>31</v>
       </c>
       <c r="R86" t="n">
-        <v>6.3931560506716</v>
+        <v>46350.3813673691</v>
       </c>
       <c r="S86" t="n">
-        <v>63.9315605067161</v>
+        <v>463503.813673691</v>
       </c>
       <c r="T86" t="s">
         <v>33</v>
@@ -33904,10 +33904,10 @@
         <v>2</v>
       </c>
       <c r="N87" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -33916,10 +33916,10 @@
         <v>31</v>
       </c>
       <c r="R87" t="n">
-        <v>6.59294217725509</v>
+        <v>48348.242633204</v>
       </c>
       <c r="S87" t="n">
-        <v>659.294217725509</v>
+        <v>4834824.2633204</v>
       </c>
       <c r="T87" t="s">
         <v>33</v>
@@ -33966,10 +33966,10 @@
         <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>67</v>
+        <v>484000</v>
       </c>
       <c r="O88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P88" t="n">
         <v>2</v>
@@ -33978,10 +33978,10 @@
         <v>31</v>
       </c>
       <c r="R88" t="n">
-        <v>13.3856704810937</v>
+        <v>96696.485266408</v>
       </c>
       <c r="S88" t="n">
-        <v>669.283524054684</v>
+        <v>4834824.2633204</v>
       </c>
       <c r="T88" t="s">
         <v>33</v>
@@ -34028,10 +34028,10 @@
         <v>2</v>
       </c>
       <c r="N89" t="n">
-        <v>3.5</v>
+        <v>296000</v>
       </c>
       <c r="O89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P89" t="n">
         <v>0.429</v>
@@ -34040,10 +34040,10 @@
         <v>31</v>
       </c>
       <c r="R89" t="n">
-        <v>41.9550865992258</v>
+        <v>3548201.60953452</v>
       </c>
       <c r="S89" t="n">
-        <v>419.550865992258</v>
+        <v>35482016.0953453</v>
       </c>
       <c r="T89" t="s">
         <v>135</v>
@@ -50410,10 +50410,10 @@
         <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>130</v>
+        <v>969000</v>
       </c>
       <c r="O72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -50422,10 +50422,10 @@
         <v>31</v>
       </c>
       <c r="R72" t="n">
-        <v>25.9721964558534</v>
+        <v>193592.7566594</v>
       </c>
       <c r="S72" t="n">
-        <v>2540.80464418757</v>
+        <v>18938766.9247519</v>
       </c>
       <c r="T72" t="s">
         <v>33</v>
@@ -50472,10 +50472,10 @@
         <v>2</v>
       </c>
       <c r="N73" t="n">
-        <v>270</v>
+        <v>1940000</v>
       </c>
       <c r="O73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P73" t="n">
         <v>8</v>
@@ -50484,10 +50484,10 @@
         <v>31</v>
       </c>
       <c r="R73" t="n">
-        <v>53.9422541775417</v>
+        <v>387585.085571966</v>
       </c>
       <c r="S73" t="n">
-        <v>2638.52789973324</v>
+        <v>18958311.5758611</v>
       </c>
       <c r="T73" t="s">
         <v>33</v>
@@ -50534,10 +50534,10 @@
         <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -50546,10 +50546,10 @@
         <v>31</v>
       </c>
       <c r="R74" t="n">
-        <v>6.59294217725509</v>
+        <v>48348.242633204</v>
       </c>
       <c r="S74" t="n">
-        <v>644.97348660146</v>
+        <v>4729805.5684107</v>
       </c>
       <c r="T74" t="s">
         <v>33</v>
@@ -50596,10 +50596,10 @@
         <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>67</v>
+        <v>484000</v>
       </c>
       <c r="O75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P75" t="n">
         <v>2</v>
@@ -50608,10 +50608,10 @@
         <v>31</v>
       </c>
       <c r="R75" t="n">
-        <v>13.3856704810937</v>
+        <v>96696.485266408</v>
       </c>
       <c r="S75" t="n">
-        <v>654.745812156027</v>
+        <v>4729805.5684107</v>
       </c>
       <c r="T75" t="s">
         <v>33</v>
@@ -50658,10 +50658,10 @@
         <v>2</v>
       </c>
       <c r="N76" t="n">
-        <v>74</v>
+        <v>533000</v>
       </c>
       <c r="O76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P76" t="n">
         <v>2.2</v>
@@ -50670,10 +50670,10 @@
         <v>31</v>
       </c>
       <c r="R76" t="n">
-        <v>14.7841733671781</v>
+        <v>106486.005468999</v>
       </c>
       <c r="S76" t="n">
-        <v>144.6304182076</v>
+        <v>1041729.9041169</v>
       </c>
       <c r="T76" t="s">
         <v>33</v>
@@ -50720,10 +50720,10 @@
         <v>2</v>
       </c>
       <c r="N77" t="n">
-        <v>16</v>
+        <v>121000</v>
       </c>
       <c r="O77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P77" t="n">
         <v>0.5</v>
@@ -50732,10 +50732,10 @@
         <v>31</v>
       </c>
       <c r="R77" t="n">
-        <v>3.1965780253358</v>
+        <v>24174.121316602</v>
       </c>
       <c r="S77" t="n">
-        <v>312.714417746162</v>
+        <v>2364902.78420535</v>
       </c>
       <c r="T77" t="s">
         <v>33</v>
@@ -50782,10 +50782,10 @@
         <v>2</v>
       </c>
       <c r="N78" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -50794,10 +50794,10 @@
         <v>31</v>
       </c>
       <c r="R78" t="n">
-        <v>6.59294217725509</v>
+        <v>48348.242633204</v>
       </c>
       <c r="S78" t="n">
-        <v>322.48674330073</v>
+        <v>2364902.78420535</v>
       </c>
       <c r="T78" t="s">
         <v>33</v>
@@ -50844,10 +50844,10 @@
         <v>2</v>
       </c>
       <c r="N79" t="n">
+        <v>232000</v>
+      </c>
+      <c r="O79" t="s">
         <v>32</v>
-      </c>
-      <c r="O79" t="s">
-        <v>31</v>
       </c>
       <c r="P79" t="n">
         <v>0.958</v>
@@ -50856,10 +50856,10 @@
         <v>31</v>
       </c>
       <c r="R79" t="n">
-        <v>6.3931560506716</v>
+        <v>46350.3813673691</v>
       </c>
       <c r="S79" t="n">
-        <v>62.5428835492324</v>
+        <v>453435.905731935</v>
       </c>
       <c r="T79" t="s">
         <v>33</v>
@@ -50906,10 +50906,10 @@
         <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>33</v>
+        <v>242000</v>
       </c>
       <c r="O80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -50918,10 +50918,10 @@
         <v>31</v>
       </c>
       <c r="R80" t="n">
-        <v>6.59294217725509</v>
+        <v>48348.242633204</v>
       </c>
       <c r="S80" t="n">
-        <v>644.97348660146</v>
+        <v>4729805.5684107</v>
       </c>
       <c r="T80" t="s">
         <v>33</v>
@@ -50968,10 +50968,10 @@
         <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>67</v>
+        <v>484000</v>
       </c>
       <c r="O81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -50980,10 +50980,10 @@
         <v>31</v>
       </c>
       <c r="R81" t="n">
-        <v>13.3856704810937</v>
+        <v>96696.485266408</v>
       </c>
       <c r="S81" t="n">
-        <v>654.745812156027</v>
+        <v>4729805.5684107</v>
       </c>
       <c r="T81" t="s">
         <v>33</v>
@@ -51030,10 +51030,10 @@
         <v>2</v>
       </c>
       <c r="N82" t="n">
-        <v>3.5</v>
+        <v>296000</v>
       </c>
       <c r="O82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P82" t="n">
         <v>0.429</v>
@@ -51042,10 +51042,10 @@
         <v>31</v>
       </c>
       <c r="R82" t="n">
-        <v>41.9550865992258</v>
+        <v>3548201.60953452</v>
       </c>
       <c r="S82" t="n">
-        <v>410.437673455146</v>
+        <v>34711300.3836352</v>
       </c>
       <c r="T82" t="s">
         <v>135</v>
